--- a/data/trans_orig/Q24D_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>2.639887131950295</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.935779967322022</v>
+        <v>3.935779967322021</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>2.241971858828695</v>
@@ -693,7 +693,7 @@
         <v>2.63315369941278</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>3.669391723243567</v>
+        <v>3.669391723243568</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.82854098047551</v>
+        <v>2.728809545576781</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.544768170931289</v>
+        <v>2.523186410045561</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.418478572214798</v>
+        <v>2.392437407370025</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.857446357532131</v>
+        <v>2.727734114335669</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.958960536634521</v>
+        <v>1.964213955601406</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.321747846426682</v>
+        <v>2.351124341625991</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.363362392156235</v>
+        <v>2.377229906943654</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.939277836277835</v>
+        <v>2.946886428975028</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.444980098263825</v>
+        <v>2.498705059464283</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.522628832844891</v>
+        <v>2.516894893939724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.448172297153329</v>
+        <v>2.444002610874138</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.074774369445141</v>
+        <v>3.082149445975017</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.057035148443474</v>
+        <v>4.996022288964571</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.288766925975044</v>
+        <v>3.285514508511277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.927270311948014</v>
+        <v>2.928167496298146</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.008922136909693</v>
+        <v>5.794395464811938</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.570481878159412</v>
+        <v>2.553684912022297</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.114154080600475</v>
+        <v>3.108467225430573</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.93199274610408</v>
+        <v>3.016706631768163</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.216133969020281</v>
+        <v>4.271773422093947</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.656005711928815</v>
+        <v>3.627589382039193</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.051705617786193</v>
+        <v>3.07327833811979</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.856293388566513</v>
+        <v>2.830003581690022</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>4.527882238840366</v>
+        <v>4.579439200105206</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>2.302893330243562</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>2.974910368276447</v>
+        <v>2.974910368276448</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.563626848858772</v>
@@ -829,7 +829,7 @@
         <v>2.475327029514101</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>2.956020218132926</v>
+        <v>2.956020218132925</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.252529463962527</v>
+        <v>2.237961556206009</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.368833210816842</v>
+        <v>2.376130381704166</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.279193052521887</v>
+        <v>2.278550251964988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.466181089947576</v>
+        <v>2.445049683638337</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.905540571501309</v>
+        <v>1.91025882482497</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.006138266353108</v>
+        <v>2.0010737987729</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.017189366375154</v>
+        <v>2.019535958384937</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.47906064121009</v>
+        <v>2.48405630414595</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.217091392515454</v>
+        <v>2.208561562100258</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.291250392865769</v>
+        <v>2.289192133189997</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2.246890432879308</v>
+        <v>2.250162882750086</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.569121975196054</v>
+        <v>2.607709968123634</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.853243465047056</v>
+        <v>3.736388784885232</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.865176777793883</v>
+        <v>3.811004185150919</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.195040387574111</v>
+        <v>3.227757238626412</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.736751998701183</v>
+        <v>3.629420168505074</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.565863296543562</v>
+        <v>2.558727631538644</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.45252517572175</v>
+        <v>2.452755078211343</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.668184653610727</v>
+        <v>2.62740041104973</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.875857906274507</v>
+        <v>3.737448488202853</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.145514262056749</v>
+        <v>3.196929207747793</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.12551273126657</v>
+        <v>3.264663878295177</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.82776242010346</v>
+        <v>2.861626098620497</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.45786707854259</v>
+        <v>3.484968530944598</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>2.257809761968488</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.716808765708329</v>
+        <v>2.71680876570833</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2.122120656588862</v>
@@ -953,7 +953,7 @@
         <v>2.167281617863141</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>2.180106145781006</v>
+        <v>2.180106145781007</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>2.242411187135634</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.98563778940981</v>
+        <v>1.978469265157267</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.030404425518101</v>
+        <v>2.038673893426047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.896654578524403</v>
+        <v>1.89758491218225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.169310908796947</v>
+        <v>2.12999035296449</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.795777831796845</v>
+        <v>1.815450600808586</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.111375778806249</v>
+        <v>2.097551968998538</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.888425324995529</v>
+        <v>1.909202015817711</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.944190002131324</v>
+        <v>1.920759373544096</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.994273897453863</v>
+        <v>2.000333420441085</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2.117851632037035</v>
+        <v>2.144010229624381</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.977995119417306</v>
+        <v>1.980348438349264</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.160934331768264</v>
+        <v>2.156861762343779</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.942529557291269</v>
+        <v>2.910594605442552</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.628277062806614</v>
+        <v>2.661530881288848</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.054398631512557</v>
+        <v>3.091380680834048</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.041727002361876</v>
+        <v>4.470464920541594</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.643268887810852</v>
+        <v>2.695330075877939</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.688054411782169</v>
+        <v>2.698447278436079</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.546267015159069</v>
+        <v>2.541752066563734</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.563666797862043</v>
+        <v>2.541834661740389</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.666419498356521</v>
+        <v>2.623332458636536</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2.563057537393885</v>
+        <v>2.569088239272106</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.675789497973632</v>
+        <v>2.684476558044673</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.271290186244157</v>
+        <v>3.551210073360076</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>2.565617239178589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.587696711636672</v>
+        <v>2.587696711636671</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>2.212951450728149</v>
@@ -1089,7 +1089,7 @@
         <v>3.214560479814708</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>2.537670672793926</v>
+        <v>2.537670672793925</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>2.442690369834685</v>
@@ -1101,7 +1101,7 @@
         <v>2.803796232377541</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>2.565397277304636</v>
+        <v>2.565397277304637</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.10518886701925</v>
+        <v>2.059651107160579</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.256793790050283</v>
+        <v>2.226870417364434</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.136298819453868</v>
+        <v>2.089050776081073</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.229911561447632</v>
+        <v>2.216565824909999</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.726537095766853</v>
+        <v>1.703032293922586</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.041450810013919</v>
+        <v>2.009025688648109</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.893301459294285</v>
+        <v>1.971276512853259</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.247098918840591</v>
+        <v>2.21928861310098</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.057479970104721</v>
+        <v>2.06851651880134</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.226820672712557</v>
+        <v>2.200883104407441</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.228474795221113</v>
+        <v>2.20308596307962</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.321868918918659</v>
+        <v>2.302977018777014</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.368239337944146</v>
+        <v>3.293927030274043</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.20314176972055</v>
+        <v>3.242839729967047</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.356262649527951</v>
+        <v>3.347557991222247</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.16482501813318</v>
+        <v>3.101792352210985</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.782178680546545</v>
+        <v>2.819210586522923</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.905819531397451</v>
+        <v>2.857974465057299</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>6.461059001177234</v>
+        <v>6.491235487607329</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.95946188574286</v>
+        <v>2.944750001305421</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.91157947528642</v>
+        <v>2.928387098347914</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.86060879631358</v>
+        <v>2.896999836765938</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.909893715655495</v>
+        <v>4.007393197900307</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.913990482745185</v>
+        <v>2.885840901942831</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>2.499700533328931</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>2.806458277148153</v>
+        <v>2.806458277148154</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>2.541753008178484</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.469786914304672</v>
+        <v>2.474870094557836</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.483897917019835</v>
+        <v>2.511761001496265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.390345626312678</v>
+        <v>2.385482917304782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.598943706787797</v>
+        <v>2.594931038334601</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.016099242205574</v>
+        <v>2.020795046734122</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.279226980816269</v>
+        <v>2.273385074395314</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.310250535184879</v>
+        <v>2.303830411666425</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.571433068429505</v>
+        <v>2.575521466471005</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.335884223768958</v>
+        <v>2.351474438903711</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.437399455656438</v>
+        <v>2.426068189387963</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.402506293045995</v>
+        <v>2.411962025882123</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.670487380199764</v>
+        <v>2.668333553591189</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.26485767289743</v>
+        <v>3.239916105098869</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.997728477374565</v>
+        <v>3.049057347938816</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.798572059310437</v>
+        <v>2.768923926533044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.43879167251221</v>
+        <v>3.475958970230082</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.373887198507455</v>
+        <v>2.392171943745088</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.635652151181954</v>
+        <v>2.637380286596591</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.814753233795302</v>
+        <v>2.797417592768698</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.102838022273219</v>
+        <v>3.14773977590419</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.822635746266524</v>
+        <v>2.80961674921329</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.75531506933348</v>
+        <v>2.755064621009841</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.691280710212111</v>
+        <v>2.714460413950103</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>3.142527790972707</v>
+        <v>3.158633697816616</v>
       </c>
     </row>
     <row r="19">
